--- a/data/trans_camb/P57_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Estudios-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 4,18</t>
+          <t>-5,06; 4,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 2,05</t>
+          <t>-6,13; 2,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,22</t>
+          <t>-4,17; 2,16</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 14,94</t>
+          <t>-15,72; 17,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 5,5</t>
+          <t>-14,71; 7,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 6,51</t>
+          <t>-11,48; 6,5</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,13; -2,74</t>
+          <t>-7,23; -2,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -5,07</t>
+          <t>-10,01; -5,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -4,38</t>
+          <t>-7,81; -4,47</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,78; -18,19</t>
+          <t>-41,85; -19,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,09; -27,67</t>
+          <t>-48,26; -27,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,58; -26,37</t>
+          <t>-42,06; -26,28</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 1,38</t>
+          <t>-6,06; 1,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 2,64</t>
+          <t>-3,69; 2,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,12</t>
+          <t>-3,97; 0,94</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,23; 15,29</t>
+          <t>-44,22; 16,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,56; 37,97</t>
+          <t>-33,35; 41,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 13,38</t>
+          <t>-33,32; 11,05</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; -3,05</t>
+          <t>-6,71; -2,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,67; -4,56</t>
+          <t>-8,72; -4,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,16; -4,33</t>
+          <t>-7,1; -4,27</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,37; -17,45</t>
+          <t>-34,72; -16,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,73; -20,53</t>
+          <t>-36,12; -20,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,05; -21,64</t>
+          <t>-32,6; -20,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Estudios-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 4,65</t>
+          <t>-4,94; 4,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 2,59</t>
+          <t>-6,42; 2,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 2,16</t>
+          <t>-4,34; 1,96</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 17,05</t>
+          <t>-15,13; 15,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 7,09</t>
+          <t>-15,42; 6,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 6,5</t>
+          <t>-11,78; 5,82</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,23; -2,88</t>
+          <t>-7,23; -2,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -5,02</t>
+          <t>-9,98; -5,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -4,47</t>
+          <t>-7,81; -4,39</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,85; -19,61</t>
+          <t>-41,66; -18,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,26; -27,66</t>
+          <t>-47,98; -27,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,06; -26,28</t>
+          <t>-41,86; -25,86</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 1,46</t>
+          <t>-5,56; 1,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,84</t>
+          <t>-3,96; 2,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 0,94</t>
+          <t>-3,92; 0,8</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,22; 16,21</t>
+          <t>-42,78; 16,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,35; 41,88</t>
+          <t>-33,24; 35,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 11,05</t>
+          <t>-32,96; 8,95</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,71; -2,91</t>
+          <t>-6,71; -2,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,72; -4,63</t>
+          <t>-8,72; -4,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,1; -4,27</t>
+          <t>-7,11; -4,21</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,72; -16,57</t>
+          <t>-34,94; -16,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-36,12; -20,92</t>
+          <t>-36,3; -20,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,6; -20,82</t>
+          <t>-32,8; -20,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 4,42</t>
+          <t>-5,53; 4,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 2,19</t>
+          <t>-6,06; 2,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,96</t>
+          <t>-4,06; 2,22</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 15,98</t>
+          <t>-17,27; 14,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 6,13</t>
+          <t>-14,71; 5,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 5,82</t>
+          <t>-11,09; 6,51</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,23; -2,77</t>
+          <t>-7,13; -2,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,98; -5,03</t>
+          <t>-10,01; -5,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -4,39</t>
+          <t>-7,66; -4,38</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,66; -18,73</t>
+          <t>-41,78; -18,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,98; -27,72</t>
+          <t>-48,09; -27,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,86; -25,86</t>
+          <t>-41,58; -26,37</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 1,44</t>
+          <t>-5,91; 1,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 2,39</t>
+          <t>-3,9; 2,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 0,8</t>
+          <t>-3,85; 1,12</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,78; 16,36</t>
+          <t>-45,23; 15,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,24; 35,64</t>
+          <t>-34,56; 37,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,96; 8,95</t>
+          <t>-33,6; 13,38</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,71; -2,93</t>
+          <t>-6,65; -3,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,72; -4,48</t>
+          <t>-8,67; -4,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,11; -4,21</t>
+          <t>-7,16; -4,33</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,94; -16,81</t>
+          <t>-34,37; -17,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-36,3; -20,32</t>
+          <t>-35,73; -20,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,8; -20,98</t>
+          <t>-33,05; -21,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-1,82</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 4,18</t>
+          <t>-6,21; 3,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 2,05</t>
+          <t>-6,85; 1,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,22</t>
+          <t>-4,94; 1,38</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>-3,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>-5,16%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 14,94</t>
+          <t>-19,09; 12,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 5,5</t>
+          <t>-16,67; 3,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 6,51</t>
+          <t>-13,43; 4,09</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>-8,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,09</t>
+          <t>-7,46</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,13; -2,74</t>
+          <t>-9,49; -4,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -5,07</t>
+          <t>-12,15; -5,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -4,38</t>
+          <t>-9,72; -5,64</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-30,81%</t>
+          <t>-39,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-37,3%</t>
+          <t>-43,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-34,17%</t>
+          <t>-41,82%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,78; -18,19</t>
+          <t>-57,02; -26,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,09; -27,67</t>
+          <t>-59,13; -32,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,58; -26,37</t>
+          <t>-52,91; -33,35</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-1,59</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 1,38</t>
+          <t>-6,1; 1,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 2,64</t>
+          <t>-4,12; 2,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,12</t>
+          <t>-4,01; 1,04</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-19,99%</t>
+          <t>-21,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,51%</t>
+          <t>-8,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-14,02%</t>
+          <t>-15,68%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,23; 15,29</t>
+          <t>-45,99; 14,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,56; 37,97</t>
+          <t>-36,16; 33,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 13,38</t>
+          <t>-35,02; 11,53</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,46</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>-6,91</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; -3,05</t>
+          <t>-9,0; -4,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,67; -4,56</t>
+          <t>-10,76; -5,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,16; -4,33</t>
+          <t>-9,21; -5,48</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-25,91%</t>
+          <t>-32,77%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,59%</t>
+          <t>-33,02%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-26,59%</t>
+          <t>-32,87%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,37; -17,45</t>
+          <t>-48,76; -22,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,73; -20,53</t>
+          <t>-45,32; -25,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,05; -21,64</t>
+          <t>-42,68; -26,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Estudios-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 3,68</t>
+          <t>-5,64; 4,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 1,3</t>
+          <t>-6,62; 1,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 1,38</t>
+          <t>-5,03; 1,34</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 12,87</t>
+          <t>-17,2; 15,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 3,36</t>
+          <t>-16,07; 5,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 4,09</t>
+          <t>-13,63; 3,8</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,49; -4,04</t>
+          <t>-9,69; -4,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,15; -5,93</t>
+          <t>-12,14; -6,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -5,64</t>
+          <t>-9,54; -5,41</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,02; -26,37</t>
+          <t>-57,69; -27,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,13; -32,39</t>
+          <t>-59,14; -32,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,91; -33,35</t>
+          <t>-52,32; -32,41</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 1,29</t>
+          <t>-6,34; 1,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 2,45</t>
+          <t>-4,08; 2,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 1,04</t>
+          <t>-4,19; 0,73</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,99; 14,44</t>
+          <t>-46,79; 11,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,16; 33,03</t>
+          <t>-35,59; 37,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 11,53</t>
+          <t>-35,34; 7,75</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,0; -4,08</t>
+          <t>-8,88; -4,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,76; -5,71</t>
+          <t>-10,72; -5,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,21; -5,48</t>
+          <t>-9,38; -5,35</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-48,76; -22,78</t>
+          <t>-46,47; -23,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,32; -25,81</t>
+          <t>-44,81; -25,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,68; -26,96</t>
+          <t>-43,19; -26,13</t>
         </is>
       </c>
     </row>
